--- a/simulated_data/dyads_simulated/cond3_no_coupling/HRV_A.xlsx
+++ b/simulated_data/dyads_simulated/cond3_no_coupling/HRV_A.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A541"/>
+  <dimension ref="A1:A543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,42 +810,42 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>936</v>
+        <v>994</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>846</v>
+        <v>936</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>866</v>
+        <v>846</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>918</v>
+        <v>866</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>900</v>
+        <v>918</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>826</v>
+        <v>900</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>876</v>
+        <v>826</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>930</v>
+        <v>876</v>
       </c>
     </row>
     <row r="86">
@@ -855,107 +855,107 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>846</v>
+        <v>930</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>894</v>
+        <v>856</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>916</v>
+        <v>894</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>850</v>
+        <v>916</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>810</v>
+        <v>850</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>870</v>
+        <v>810</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>934</v>
+        <v>870</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>916</v>
+        <v>934</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>824</v>
+        <v>916</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>780</v>
+        <v>826</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>702</v>
+        <v>780</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>720</v>
+        <v>702</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>856</v>
+        <v>720</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>872</v>
+        <v>856</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>902</v>
+        <v>872</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>772</v>
+        <v>904</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>700</v>
+        <v>772</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>668</v>
+        <v>700</v>
       </c>
     </row>
     <row r="108">
@@ -965,227 +965,227 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>688</v>
+        <v>668</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>726</v>
+        <v>688</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>762</v>
+        <v>726</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>818</v>
+        <v>762</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>840</v>
+        <v>818</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>812</v>
+        <v>846</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>766</v>
+        <v>812</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>732</v>
+        <v>766</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>714</v>
+        <v>732</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>692</v>
+        <v>714</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>670</v>
+        <v>692</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>692</v>
+        <v>670</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>674</v>
+        <v>696</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>692</v>
+        <v>674</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>774</v>
+        <v>692</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>756</v>
+        <v>774</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>816</v>
+        <v>756</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>838</v>
+        <v>816</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>818</v>
+        <v>838</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>784</v>
+        <v>818</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>690</v>
+        <v>784</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>640</v>
+        <v>690</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>694</v>
+        <v>632</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>834</v>
+        <v>694</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>896</v>
+        <v>834</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>924</v>
+        <v>896</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>886</v>
+        <v>924</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>790</v>
+        <v>886</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>710</v>
+        <v>790</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>746</v>
+        <v>710</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>778</v>
+        <v>746</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>802</v>
+        <v>788</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>792</v>
+        <v>812</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>724</v>
+        <v>792</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>676</v>
+        <v>724</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>660</v>
+        <v>676</v>
       </c>
     </row>
     <row r="154">
@@ -1195,217 +1195,217 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>680</v>
+        <v>650</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>744</v>
+        <v>680</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>772</v>
+        <v>744</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>828</v>
+        <v>776</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>864</v>
+        <v>828</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>776</v>
+        <v>864</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>800</v>
+        <v>784</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>828</v>
+        <v>800</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>840</v>
+        <v>828</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>818</v>
+        <v>840</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>808</v>
+        <v>818</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>796</v>
+        <v>810</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>778</v>
+        <v>802</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>712</v>
+        <v>778</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>674</v>
+        <v>712</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>738</v>
+        <v>672</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>864</v>
+        <v>738</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>880</v>
+        <v>864</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>776</v>
+        <v>880</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>752</v>
+        <v>776</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>682</v>
+        <v>724</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>754</v>
+        <v>682</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>874</v>
+        <v>754</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>820</v>
+        <v>874</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>836</v>
+        <v>820</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>750</v>
+        <v>836</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>782</v>
+        <v>754</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>856</v>
+        <v>782</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>914</v>
+        <v>856</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>932</v>
+        <v>914</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>892</v>
+        <v>932</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>836</v>
+        <v>892</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>792</v>
+        <v>836</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>730</v>
+        <v>792</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>690</v>
+        <v>730</v>
       </c>
     </row>
     <row r="198">
@@ -1415,502 +1415,502 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>802</v>
+        <v>690</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>924</v>
+        <v>802</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>860</v>
+        <v>924</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>870</v>
+        <v>876</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>856</v>
+        <v>870</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>730</v>
+        <v>856</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>684</v>
+        <v>730</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>642</v>
+        <v>684</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>656</v>
+        <v>642</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>844</v>
+        <v>656</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>912</v>
+        <v>844</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>932</v>
+        <v>912</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>908</v>
+        <v>934</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>800</v>
+        <v>908</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>824</v>
+        <v>800</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>898</v>
+        <v>824</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>938</v>
+        <v>898</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>866</v>
+        <v>944</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>782</v>
+        <v>866</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>816</v>
+        <v>782</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>836</v>
+        <v>816</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>862</v>
+        <v>836</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>776</v>
+        <v>862</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>820</v>
+        <v>776</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>842</v>
+        <v>820</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>902</v>
+        <v>842</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>922</v>
+        <v>902</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>876</v>
+        <v>922</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>790</v>
+        <v>876</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>812</v>
+        <v>800</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>844</v>
+        <v>812</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>860</v>
+        <v>844</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>756</v>
+        <v>860</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>702</v>
+        <v>756</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>720</v>
+        <v>702</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>704</v>
+        <v>726</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>668</v>
+        <v>704</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>724</v>
+        <v>676</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>750</v>
+        <v>724</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>712</v>
+        <v>700</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>746</v>
+        <v>712</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>798</v>
+        <v>746</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>756</v>
+        <v>798</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>804</v>
+        <v>756</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>864</v>
+        <v>804</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>898</v>
+        <v>864</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>890</v>
+        <v>898</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>816</v>
+        <v>890</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>746</v>
+        <v>816</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>776</v>
+        <v>744</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>852</v>
+        <v>776</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>910</v>
+        <v>852</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>838</v>
+        <v>910</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>818</v>
+        <v>838</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>880</v>
+        <v>818</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>926</v>
+        <v>880</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>864</v>
+        <v>926</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>780</v>
+        <v>864</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>808</v>
+        <v>786</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>790</v>
+        <v>808</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>840</v>
+        <v>790</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>860</v>
+        <v>840</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>846</v>
+        <v>858</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>754</v>
+        <v>846</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>710</v>
+        <v>754</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>666</v>
+        <v>710</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>724</v>
+        <v>666</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>804</v>
+        <v>724</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>898</v>
+        <v>804</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>940</v>
+        <v>898</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>904</v>
+        <v>922</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>806</v>
+        <v>904</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>758</v>
+        <v>806</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>724</v>
+        <v>758</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>768</v>
+        <v>742</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>850</v>
+        <v>768</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>930</v>
+        <v>850</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>802</v>
+        <v>938</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>768</v>
+        <v>802</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>750</v>
+        <v>772</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>820</v>
+        <v>750</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>866</v>
+        <v>820</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="299">
@@ -1920,82 +1920,82 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>828</v>
+        <v>876</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>750</v>
+        <v>828</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>794</v>
+        <v>752</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>838</v>
+        <v>786</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>784</v>
+        <v>838</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>848</v>
+        <v>784</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>894</v>
+        <v>848</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>872</v>
+        <v>902</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>754</v>
+        <v>872</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>706</v>
+        <v>754</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>750</v>
+        <v>704</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>792</v>
+        <v>750</v>
       </c>
     </row>
     <row r="316">
@@ -2005,77 +2005,77 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>816</v>
+        <v>792</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>806</v>
+        <v>816</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>784</v>
+        <v>806</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>766</v>
+        <v>784</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>752</v>
+        <v>766</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>694</v>
+        <v>752</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>668</v>
+        <v>694</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>654</v>
+        <v>668</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>762</v>
+        <v>648</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>882</v>
+        <v>762</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>978</v>
+        <v>882</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>990</v>
+        <v>978</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>932</v>
+        <v>990</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>872</v>
+        <v>932</v>
       </c>
     </row>
     <row r="332">
@@ -2085,42 +2085,42 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>816</v>
+        <v>872</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>840</v>
+        <v>816</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>858</v>
+        <v>840</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>872</v>
+        <v>858</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>898</v>
+        <v>872</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>928</v>
+        <v>898</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>870</v>
+        <v>928</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>888</v>
+        <v>870</v>
       </c>
     </row>
     <row r="341">
@@ -2130,62 +2130,62 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>902</v>
+        <v>882</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>892</v>
+        <v>914</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>878</v>
+        <v>892</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>796</v>
+        <v>878</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>756</v>
+        <v>766</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>772</v>
+        <v>756</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>810</v>
+        <v>772</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>854</v>
+        <v>810</v>
       </c>
     </row>
     <row r="354">
@@ -2195,372 +2195,372 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>832</v>
+        <v>852</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>790</v>
+        <v>832</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>776</v>
+        <v>790</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>754</v>
+        <v>776</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>726</v>
+        <v>756</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>788</v>
+        <v>726</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>856</v>
+        <v>788</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>916</v>
+        <v>856</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>936</v>
+        <v>916</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>900</v>
+        <v>936</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>848</v>
+        <v>900</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>814</v>
+        <v>848</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>752</v>
+        <v>814</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>704</v>
+        <v>752</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>796</v>
+        <v>700</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>868</v>
+        <v>796</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>910</v>
+        <v>868</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>844</v>
+        <v>906</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>868</v>
+        <v>840</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>768</v>
+        <v>868</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>692</v>
+        <v>768</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>752</v>
+        <v>692</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>854</v>
+        <v>752</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>920</v>
+        <v>854</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>942</v>
+        <v>920</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>880</v>
+        <v>942</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>790</v>
+        <v>880</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>728</v>
+        <v>790</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>704</v>
+        <v>728</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>892</v>
+        <v>704</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>972</v>
+        <v>900</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>890</v>
+        <v>972</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>910</v>
+        <v>890</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>936</v>
+        <v>910</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>860</v>
+        <v>936</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>882</v>
+        <v>860</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>924</v>
+        <v>882</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>988</v>
+        <v>924</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>960</v>
+        <v>988</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>852</v>
+        <v>960</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>890</v>
+        <v>864</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>922</v>
+        <v>890</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>968</v>
+        <v>922</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>880</v>
+        <v>968</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>810</v>
+        <v>880</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>854</v>
+        <v>810</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>956</v>
+        <v>854</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>928</v>
+        <v>956</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>906</v>
+        <v>928</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>808</v>
+        <v>912</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>860</v>
+        <v>840</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>782</v>
+        <v>860</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>766</v>
+        <v>782</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>852</v>
+        <v>778</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>828</v>
+        <v>852</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>888</v>
+        <v>828</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>928</v>
+        <v>888</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>914</v>
+        <v>926</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>838</v>
+        <v>914</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>788</v>
+        <v>838</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>738</v>
+        <v>788</v>
       </c>
     </row>
     <row r="429">
@@ -2570,37 +2570,37 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>792</v>
+        <v>738</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>894</v>
+        <v>792</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>818</v>
+        <v>894</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>796</v>
+        <v>818</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>904</v>
+        <v>796</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>940</v>
+        <v>904</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>878</v>
+        <v>940</v>
       </c>
     </row>
     <row r="437">
@@ -2610,27 +2610,27 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>860</v>
+        <v>878</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>786</v>
+        <v>860</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>810</v>
+        <v>786</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>834</v>
+        <v>810</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>866</v>
+        <v>834</v>
       </c>
     </row>
     <row r="443">
@@ -2640,22 +2640,22 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>812</v>
+        <v>866</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>802</v>
+        <v>812</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>818</v>
+        <v>802</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>830</v>
+        <v>818</v>
       </c>
     </row>
     <row r="448">
@@ -2665,142 +2665,142 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>778</v>
+        <v>830</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>810</v>
+        <v>778</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>890</v>
+        <v>810</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>958</v>
+        <v>890</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>938</v>
+        <v>958</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>886</v>
+        <v>938</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>832</v>
+        <v>886</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>750</v>
+        <v>832</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>784</v>
+        <v>740</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>862</v>
+        <v>784</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>914</v>
+        <v>864</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>896</v>
+        <v>914</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>920</v>
+        <v>892</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>946</v>
+        <v>920</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>940</v>
+        <v>946</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>892</v>
+        <v>940</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>790</v>
+        <v>892</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>884</v>
+        <v>792</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>916</v>
+        <v>884</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>900</v>
+        <v>918</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>812</v>
+        <v>900</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>740</v>
+        <v>812</v>
       </c>
     </row>
     <row r="477">
@@ -2810,321 +2810,331 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>818</v>
+        <v>740</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>916</v>
+        <v>818</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>938</v>
+        <v>916</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>900</v>
+        <v>938</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>862</v>
+        <v>900</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>764</v>
+        <v>862</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>720</v>
+        <v>764</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>800</v>
+        <v>724</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>862</v>
+        <v>800</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>812</v>
+        <v>862</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>856</v>
+        <v>812</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>798</v>
+        <v>856</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>974</v>
+        <v>800</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>934</v>
+        <v>994</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>822</v>
+        <v>974</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>796</v>
+        <v>934</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>790</v>
+        <v>822</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>856</v>
+        <v>796</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>912</v>
+        <v>790</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>900</v>
+        <v>856</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>870</v>
+        <v>912</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>840</v>
+        <v>900</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>790</v>
+        <v>870</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>736</v>
+        <v>840</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>770</v>
+        <v>790</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>902</v>
+        <v>736</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>956</v>
+        <v>770</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>988</v>
+        <v>902</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>824</v>
+        <v>988</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>780</v>
+        <v>942</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>788</v>
+        <v>824</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>878</v>
+        <v>780</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>892</v>
+        <v>788</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>812</v>
+        <v>878</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>824</v>
+        <v>892</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>908</v>
+        <v>812</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>960</v>
+        <v>824</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>954</v>
+        <v>908</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>932</v>
+        <v>960</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>896</v>
+        <v>954</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>870</v>
+        <v>932</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>832</v>
+        <v>896</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>776</v>
+        <v>870</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>788</v>
+        <v>832</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>868</v>
+        <v>776</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>764</v>
+        <v>788</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>700</v>
+        <v>868</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>712</v>
+        <v>764</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>738</v>
+        <v>700</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>770</v>
+        <v>712</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>880</v>
+        <v>738</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>904</v>
+        <v>770</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>822</v>
+        <v>904</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>728</v>
+        <v>888</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>676</v>
+        <v>822</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>650</v>
+        <v>728</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>644</v>
+        <v>676</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>668</v>
+        <v>650</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>784</v>
+        <v>644</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
         <v>890</v>
       </c>
     </row>
